--- a/biology/Zoologie/Abantiades_barcas/Abantiades_barcas.xlsx
+++ b/biology/Zoologie/Abantiades_barcas/Abantiades_barcas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abantiades barcas est une espèce de Lépidoptères (papillons) de la famille des Hepialidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique d'Australie.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago a une envergure d'environ 10 cm.
 </t>
@@ -573,14 +589,50 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Abantiades barcas (Pfitzner, 1914)[1].
-L'espèce a été initialement classée dans le genre Pielus,  décrite sous le protonyme Pielus barcas par l'entomologiste allemand Rudolf Pfitzner en 1914[1],[2],[3].
-Abantiades barcas a pour synonyme[1] :
-Pielus barcas Pfitzner, 1914
-Publication originale
-Pfitzner, 1914 : Neue Hepialiden. Entomologische Rundschau, vol. 31, p. 95–96.</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Abantiades barcas (Pfitzner, 1914).
+L'espèce a été initialement classée dans le genre Pielus,  décrite sous le protonyme Pielus barcas par l'entomologiste allemand Rudolf Pfitzner en 1914.
+Abantiades barcas a pour synonyme :
+Pielus barcas Pfitzner, 1914</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Abantiades_barcas</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abantiades_barcas</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pfitzner, 1914 : Neue Hepialiden. Entomologische Rundschau, vol. 31, p. 95–96.</t>
         </is>
       </c>
     </row>
